--- a/assets/templates/card-upload-template.xlsx
+++ b/assets/templates/card-upload-template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\webPrj\cardmasterweb\assets\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5429E65-4C81-4583-A509-70715375C9DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BCB8B31-14C4-4ECA-AB10-4767E1F3B739}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6525" yWindow="4890" windowWidth="28800" windowHeight="15345" xr2:uid="{15A92083-C7D4-4083-AA8A-48F9C6B15A54}"/>
   </bookViews>
@@ -25,19 +25,39 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>卡片正面內容</t>
   </si>
   <si>
     <t>卡片背面內容</t>
+  </si>
+  <si>
+    <t>測試1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>測試內容1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>測試2</t>
+  </si>
+  <si>
+    <t>測試3</t>
+  </si>
+  <si>
+    <t>測試內容2</t>
+  </si>
+  <si>
+    <t>測試內容3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -59,6 +79,19 @@
       <color rgb="FF000000"/>
       <name val="Segoe UI"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
     </font>
   </fonts>
   <fills count="2">
@@ -83,11 +116,17 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -407,7 +446,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -427,32 +466,44 @@
       <c r="D1" s="1"/>
     </row>
     <row r="2" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
+      <c r="A2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>3</v>
+      </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
     </row>
     <row r="3" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
+      <c r="A3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>6</v>
+      </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
     </row>
     <row r="4" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
+      <c r="A4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
     </row>
     <row r="5" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
+      <c r="A5" s="3"/>
+      <c r="B5" s="2"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
     </row>
     <row r="6" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
     </row>
